--- a/Demo_working/src/test/resources/TestData/TestData.xlsx
+++ b/Demo_working/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="17220" windowHeight="4560" tabRatio="845" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="16920" windowHeight="8220" tabRatio="706" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="AddPayerNonUsEin" sheetId="14" r:id="rId13"/>
     <sheet name="People" sheetId="15" r:id="rId14"/>
     <sheet name="AddRecipientEin" sheetId="16" r:id="rId15"/>
+    <sheet name="1099MISCdata" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:Q27"/>
+  <oleSize ref="A1:J11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="130">
   <si>
     <t>TestCases</t>
   </si>
@@ -391,6 +392,39 @@
   </si>
   <si>
     <t>Payers count in manage payer page</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>BusinessName</t>
+  </si>
+  <si>
+    <t>Payer Business name</t>
+  </si>
+  <si>
+    <t>Test0202202120528</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Test0202202134948</t>
+  </si>
+  <si>
+    <t>Test0202202150222</t>
+  </si>
+  <si>
+    <t>Test0202202155851</t>
+  </si>
+  <si>
+    <t>Test0202202160448</t>
+  </si>
+  <si>
+    <t>Test0203202195509</t>
+  </si>
+  <si>
+    <t>Test02032021100108</t>
   </si>
 </sst>
 </file>
@@ -551,6 +585,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -559,9 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,13 +939,13 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
@@ -1258,9 +1292,9 @@
     <col min="2" max="2" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>5.46199841E8</v>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>546199841</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1307,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1362,12 +1396,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="18"/>
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1378,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1457,6 +1491,51 @@
       </c>
       <c r="K2" s="12">
         <v>12345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Demo_working/src/test/resources/TestData/TestData.xlsx
+++ b/Demo_working/src/test/resources/TestData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="131">
   <si>
     <t>TestCases</t>
   </si>
@@ -403,28 +403,31 @@
     <t>Payer Business name</t>
   </si>
   <si>
-    <t>Test0202202120528</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Test0202202134948</t>
-  </si>
-  <si>
-    <t>Test0202202150222</t>
-  </si>
-  <si>
-    <t>Test0202202155851</t>
-  </si>
-  <si>
-    <t>Test0202202160448</t>
-  </si>
-  <si>
-    <t>Test0203202195509</t>
-  </si>
-  <si>
-    <t>Test02032021100108</t>
+    <t>Test0205202130028</t>
+  </si>
+  <si>
+    <t>Test0205202130627</t>
+  </si>
+  <si>
+    <t>Reference number</t>
+  </si>
+  <si>
+    <t>Test0205202162901</t>
+  </si>
+  <si>
+    <t>Test0205202163522</t>
+  </si>
+  <si>
+    <t>201204357</t>
+  </si>
+  <si>
+    <t>Test0205202173025</t>
+  </si>
+  <si>
+    <t>Test0205202173642</t>
+  </si>
+  <si>
+    <t>201204360</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,6 +600,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1500,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1538,8 +1542,17 @@
         <v>128</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Demo_working/src/test/resources/TestData/TestData.xlsx
+++ b/Demo_working/src/test/resources/TestData/TestData.xlsx
@@ -25,12 +25,12 @@
     <sheet name="1099MISCdata" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J11"/>
+  <oleSize ref="A1:M27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
   <si>
     <t>TestCases</t>
   </si>
@@ -397,37 +397,130 @@
     <t>AL</t>
   </si>
   <si>
-    <t>BusinessName</t>
+    <t>Reference number</t>
+  </si>
+  <si>
+    <t>SchedlueDate</t>
+  </si>
+  <si>
+    <t>201204424</t>
+  </si>
+  <si>
+    <t>Recipient EIN</t>
+  </si>
+  <si>
+    <t>Recipient BusinessName</t>
+  </si>
+  <si>
+    <t>Recipient zipcode</t>
+  </si>
+  <si>
+    <t>35005</t>
+  </si>
+  <si>
+    <t>Recipient city</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Recipient state</t>
+  </si>
+  <si>
+    <t>ClientRecipientId</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Box1 value</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>02/24/2021</t>
+  </si>
+  <si>
+    <t>Payer EIN number</t>
+  </si>
+  <si>
+    <t>Payer last name</t>
+  </si>
+  <si>
+    <t>Payer address</t>
+  </si>
+  <si>
+    <t>Payer City</t>
+  </si>
+  <si>
+    <t>PayerZIP</t>
+  </si>
+  <si>
+    <t>35010-____</t>
+  </si>
+  <si>
+    <t>Payer phoneno</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>Test02222021100743</t>
+  </si>
+  <si>
+    <t>34-4854070</t>
+  </si>
+  <si>
+    <t>Test02222021101451</t>
+  </si>
+  <si>
+    <t>Test02222021112206</t>
+  </si>
+  <si>
+    <t>74-4706410</t>
+  </si>
+  <si>
+    <t>Test02222021112912</t>
+  </si>
+  <si>
+    <t>Test02222021123208</t>
   </si>
   <si>
     <t>Payer Business name</t>
   </si>
   <si>
-    <t>Test0205202130028</t>
-  </si>
-  <si>
-    <t>Test0205202130627</t>
-  </si>
-  <si>
-    <t>Reference number</t>
-  </si>
-  <si>
-    <t>Test0205202162901</t>
-  </si>
-  <si>
-    <t>Test0205202163522</t>
-  </si>
-  <si>
-    <t>201204357</t>
-  </si>
-  <si>
-    <t>Test0205202173025</t>
-  </si>
-  <si>
-    <t>Test0205202173642</t>
-  </si>
-  <si>
-    <t>201204360</t>
+    <t>Test0222202150408</t>
+  </si>
+  <si>
+    <t>75-5134662</t>
+  </si>
+  <si>
+    <t>Test0222202151023</t>
+  </si>
+  <si>
+    <t>03/01/2021</t>
+  </si>
+  <si>
+    <t>201204570</t>
+  </si>
+  <si>
+    <t>Test0222202153844</t>
+  </si>
+  <si>
+    <t>72-5148274</t>
+  </si>
+  <si>
+    <t>Test0222202154455</t>
+  </si>
+  <si>
+    <t>Test0222202155337</t>
+  </si>
+  <si>
+    <t>76-3109228</t>
+  </si>
+  <si>
+    <t>Test0222202160047</t>
   </si>
 </sst>
 </file>
@@ -558,7 +651,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,7 +693,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1504,16 +1596,18 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1528,26 +1622,122 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.63206547E8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
